--- a/MACRO COURSE/InsertingAndFormattingText.xlsx
+++ b/MACRO COURSE/InsertingAndFormattingText.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Documents\GitHub\Excel-course\MACRO COURSE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riope\Documents\GitHub\Excel-course\MACRO COURSE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32ECAA6-EB7A-4D99-869D-302059947B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FF75C7-C978-4686-A53E-FBC3F41C5C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EAST RECORDS" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="RUN WITH BUTTON" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="23">
   <si>
     <t>East</t>
   </si>
@@ -90,6 +91,12 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
 </sst>
 </file>
@@ -100,7 +107,7 @@
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="dd\-mmm\-yy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,8 +136,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,6 +162,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -186,7 +214,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -199,6 +227,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -216,6 +246,96 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>333375</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>581025</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3073" name="Button 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3073"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000010C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-CA" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>Add Headers</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="fr-CA" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1100,8 +1220,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A3:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1109,24 +1229,24 @@
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>20</v>
+      <c r="E3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1412,16 +1532,17 @@
     <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A4:F17"/>
+  <dimension ref="A3:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A4:XFD17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1429,6 +1550,26 @@
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>0</v>
@@ -1711,5 +1852,36 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3073" r:id="rId4" name="Button 1">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!AddHeader">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>333375</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>171450</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>581025</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>